--- a/data_inter/preliminary_ranks_raw_std_test.xlsx
+++ b/data_inter/preliminary_ranks_raw_std_test.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">preliminary_ranks_raw_std_test!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,344 +1033,344 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <f>+C2-D2</f>
-        <v>-12</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <f>+C3-D3</f>
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <f>+C4-D4</f>
-        <v>-10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <f>+C5-D5</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <f>+C6-D6</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <f>+C7-D7</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <f>+C8-D8</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9">
         <f>+C9-D9</f>
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <f>+C10-D10</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11">
         <f>+C11-D11</f>
-        <v>-7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <f>+C12-D12</f>
-        <v>-6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
+        <v>13</v>
+      </c>
+      <c r="E13">
         <f>+C13-D13</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
+        <v>14</v>
+      </c>
+      <c r="E14">
         <f>+C14-D14</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <f>+C15-D15</f>
-        <v>-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="E16">
         <f>+C16-D16</f>
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1">
+        <v>19</v>
+      </c>
+      <c r="E17">
         <f>+C17-D17</f>
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1">
+        <v>15</v>
+      </c>
+      <c r="E18">
         <f>+C18-D18</f>
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19">
         <f>+C19-D19</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <f>+C20-D20</f>
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1378,17 +1378,17 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <f>+C21-D21</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,143 +1396,143 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <f>+C22-D22</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <f>+C23-D23</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <f>+C24-D24</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <f>+C25-D25</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <f>+C26-D26</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E27">
         <f>+C27-D27</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <f>+C28-D28</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <f>+C29-D29</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1540,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <f>+C30-D30</f>
@@ -1558,17 +1558,17 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <f>+C31-D31</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,17 +1576,17 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <f>+C32-D32</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,17 +1612,17 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <f>+C34-D34</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1630,17 +1630,17 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <f>+C35-D35</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1648,31 +1648,31 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <f>+C36-D36</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E37">
         <f>+C37-D37</f>
@@ -1681,88 +1681,88 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <f>+C38-D38</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <f>+C39-D39</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <f>+C40-D40</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <f>+C41-D41</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <f>+C42-D42</f>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E43">
         <f>+C43-D43</f>
@@ -1789,272 +1789,272 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <f>+C44-D44</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E45">
         <f>+C45-D45</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <f>+C46-D46</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E47">
         <f>+C47-D47</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E48">
         <f>+C48-D48</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <f>+C49-D49</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E50">
         <f>+C50-D50</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <f>+C51-D51</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <f>+C52-D52</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <f>+C53-D53</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
         <f>+C54-D54</f>
-        <v>-1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <f>+C55-D55</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <f>+C56-D56</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
         <v>15</v>
       </c>
-      <c r="D57">
-        <v>16</v>
-      </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <f>+C57-D57</f>
-        <v>-1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <f>+C58-D58</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2062,17 +2062,17 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <f>+C59-D59</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2080,13 +2080,13 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E60">
         <f>+C60-D60</f>
@@ -2098,17 +2098,17 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <f>+C61-D61</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,17 +2116,17 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>24</v>
-      </c>
-      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1">
         <f>+C62-D62</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,17 +2134,17 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>28</v>
-      </c>
-      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="E63" s="1">
         <f>+C63-D63</f>
-        <v>-1</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,17 +2152,17 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>34</v>
-      </c>
-      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
         <f>+C64-D64</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,17 +2170,17 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <f>+C65-D65</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,17 +2188,17 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C66">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>47</v>
-      </c>
-      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1">
         <f>+C66-D66</f>
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,31 +2206,31 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C67">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>48</v>
-      </c>
-      <c r="E67">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1">
         <f>+C67-D67</f>
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <f>+C68-D68</f>
@@ -2239,88 +2239,88 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D69">
-        <v>12</v>
-      </c>
-      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="E69" s="1">
         <f>+C69-D69</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70">
         <f>+C70-D70</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>22</v>
-      </c>
-      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1">
         <f>+C71-D71</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <f>+C72-D72</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E73">
         <f>+C73-D73</f>
@@ -2329,34 +2329,34 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C74">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D74">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <f>+C74-D74</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C75">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E75">
         <f>+C75-D75</f>
@@ -2365,70 +2365,70 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76">
         <v>24</v>
       </c>
-      <c r="C76">
-        <v>40</v>
-      </c>
       <c r="D76">
-        <v>41</v>
-      </c>
-      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1">
         <f>+C76-D76</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D77">
-        <v>43</v>
-      </c>
-      <c r="E77">
+        <v>32</v>
+      </c>
+      <c r="E77" s="1">
         <f>+C77-D77</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>44</v>
-      </c>
-      <c r="E78">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1">
         <f>+C78-D78</f>
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E79">
         <f>+C79-D79</f>
@@ -2437,106 +2437,106 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E80">
         <f>+C80-D80</f>
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E81">
         <f>+C81-D81</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E82">
         <f>+C82-D82</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>29</v>
-      </c>
-      <c r="E83">
+        <v>39</v>
+      </c>
+      <c r="E83" s="1">
         <f>+C83-D83</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C84">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E84">
         <f>+C84-D84</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E85">
         <f>+C85-D85</f>
@@ -2545,196 +2545,196 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D86">
-        <v>13</v>
-      </c>
-      <c r="E86">
+        <v>41</v>
+      </c>
+      <c r="E86" s="1">
         <f>+C86-D86</f>
-        <v>-1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C87">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D87">
-        <v>15</v>
-      </c>
-      <c r="E87">
+        <v>27</v>
+      </c>
+      <c r="E87" s="1">
         <f>+C87-D87</f>
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D88">
-        <v>22</v>
-      </c>
-      <c r="E88">
+        <v>29</v>
+      </c>
+      <c r="E88" s="1">
         <f>+C88-D88</f>
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C89">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E89">
         <f>+C89-D89</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C90">
+        <v>38</v>
+      </c>
+      <c r="D90">
         <v>37</v>
-      </c>
-      <c r="D90">
-        <v>38</v>
       </c>
       <c r="E90">
         <f>+C90-D90</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C91">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E91">
         <f>+C91-D91</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C92">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D92">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E92">
         <f>+C92-D92</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D93">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E93">
         <f>+C93-D93</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E94">
         <f>+C94-D94</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D95">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E95">
         <f>+C95-D95</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <f>+C96-D96</f>
@@ -2743,16 +2743,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E97">
         <f>+C97-D97</f>
@@ -2761,70 +2761,70 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C98">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D98">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E98">
         <f>+C98-D98</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <f>+C99-D99</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C100">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E100">
         <f>+C100-D100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E101">
         <f>+C101-D101</f>
@@ -2833,16 +2833,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D102">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E102">
         <f>+C102-D102</f>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D103">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E103">
         <f>+C103-D103</f>
@@ -2869,16 +2869,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C104">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <f>+C104-D104</f>
@@ -2887,232 +2887,232 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>35</v>
-      </c>
-      <c r="E105">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1">
         <f>+C105-D105</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C106">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>37</v>
-      </c>
-      <c r="E106">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1">
         <f>+C106-D106</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C107">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <f>+C107-D107</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <f>+C108-D108</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C109">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D109">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E109">
         <f>+C109-D109</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C110">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D110">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E110">
         <f>+C110-D110</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C111">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D111">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <f>+C111-D111</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C112">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E112">
         <f>+C112-D112</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C113">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D113">
-        <v>51</v>
-      </c>
-      <c r="E113">
+        <v>16</v>
+      </c>
+      <c r="E113" s="1">
         <f>+C113-D113</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <f>+C114-D114</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E115">
         <f>+C115-D115</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D116">
-        <v>7</v>
-      </c>
-      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
         <f>+C116-D116</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117">
         <f>+C117-D117</f>
@@ -3121,70 +3121,70 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C118">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E118">
         <f>+C118-D118</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C119">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <f>+C119-D119</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C120">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>44</v>
-      </c>
-      <c r="E120">
+        <v>23</v>
+      </c>
+      <c r="E120" s="1">
         <f>+C120-D120</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C121">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D121">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E121">
         <f>+C121-D121</f>
@@ -3193,56 +3193,56 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C122">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D122">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E122">
         <f>+C122-D122</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>50</v>
-      </c>
-      <c r="E123">
+        <v>28</v>
+      </c>
+      <c r="E123" s="1">
         <f>+C123-D123</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C124">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E124">
         <f>+C124-D124</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3250,17 +3250,17 @@
         <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E125">
         <f>+C125-D125</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,17 +3268,17 @@
         <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C126">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D126">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E126">
         <f>+C126-D126</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,17 +3286,17 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C127">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D127">
-        <v>18</v>
-      </c>
-      <c r="E127">
+        <v>15</v>
+      </c>
+      <c r="E127" s="1">
         <f>+C127-D127</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3304,17 +3304,17 @@
         <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C128">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D128">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E128">
         <f>+C128-D128</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3322,17 +3322,17 @@
         <v>3</v>
       </c>
       <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129">
+        <v>26</v>
+      </c>
+      <c r="D129">
         <v>27</v>
-      </c>
-      <c r="C129">
-        <v>47</v>
-      </c>
-      <c r="D129">
-        <v>47</v>
       </c>
       <c r="E129">
         <f>+C129-D129</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3340,17 +3340,17 @@
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C130">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D130">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E130">
         <f>+C130-D130</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3358,17 +3358,17 @@
         <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D131">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E131">
         <f>+C131-D131</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,17 +3376,17 @@
         <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C132">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D132">
-        <v>50</v>
-      </c>
-      <c r="E132">
+        <v>19</v>
+      </c>
+      <c r="E132" s="1">
         <f>+C132-D132</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,157 +3394,157 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C133">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D133">
-        <v>51</v>
-      </c>
-      <c r="E133">
+        <v>25</v>
+      </c>
+      <c r="E133" s="1">
         <f>+C133-D133</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D134">
-        <v>5</v>
-      </c>
-      <c r="E134">
+        <v>40</v>
+      </c>
+      <c r="E134" s="1">
         <f>+C134-D134</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C135">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E135">
         <f>+C135-D135</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C136">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E136">
         <f>+C136-D136</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C137">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D137">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E137">
         <f>+C137-D137</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>35</v>
+      </c>
+      <c r="D138">
         <v>31</v>
-      </c>
-      <c r="C138">
-        <v>21</v>
-      </c>
-      <c r="D138">
-        <v>21</v>
       </c>
       <c r="E138">
         <f>+C138-D138</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C139">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D139">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E139">
         <f>+C139-D139</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C140">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D140">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E140">
         <f>+C140-D140</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C141">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D141">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E141">
         <f>+C141-D141</f>
@@ -3553,160 +3553,160 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C142">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D142">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E142">
         <f>+C142-D142</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
         <v>24</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D143">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E143">
         <f>+C143-D143</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C144">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D144">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E144">
         <f>+C144-D144</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C145">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D145">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E145">
         <f>+C145-D145</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D146">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E146">
         <f>+C146-D146</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C147">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D147">
         <v>42</v>
       </c>
       <c r="E147">
         <f>+C147-D147</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
         <v>45</v>
       </c>
-      <c r="C148">
-        <v>48</v>
-      </c>
       <c r="D148">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E148">
         <f>+C148-D148</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C149">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D149">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E149">
         <f>+C149-D149</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C150">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D150">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E150">
         <f>+C150-D150</f>
@@ -3715,16 +3715,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E151">
         <f>+C151-D151</f>
@@ -3733,16 +3733,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="E152">
         <f>+C152-D152</f>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E153">
         <f>+C153-D153</f>
@@ -3769,16 +3769,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E154">
         <f>+C154-D154</f>
@@ -3787,88 +3787,88 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E155">
         <f>+C155-D155</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C156">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <f>+C156-D156</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <f>+C157-D157</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C158">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <f>+C158-D158</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C159">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E159">
         <f>+C159-D159</f>
@@ -3877,34 +3877,34 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C160">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E160">
         <f>+C160-D160</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C161">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D161">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E161">
         <f>+C161-D161</f>
@@ -3913,286 +3913,286 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C162">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D162">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E162">
         <f>+C162-D162</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C163">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E163">
         <f>+C163-D163</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C164">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D164">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E164">
         <f>+C164-D164</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C165">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D165">
-        <v>45</v>
-      </c>
-      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="E165" s="1">
         <f>+C165-D165</f>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C166">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D166">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E166">
         <f>+C166-D166</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E167">
         <f>+C167-D167</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E168">
         <f>+C168-D168</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E169">
         <f>+C169-D169</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C170">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D170">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E170">
         <f>+C170-D170</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C171">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D171">
-        <v>22</v>
-      </c>
-      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="E171" s="1">
         <f>+C171-D171</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C172">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D172">
-        <v>29</v>
-      </c>
-      <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="E172" s="1">
         <f>+C172-D172</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C173">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D173">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E173">
         <f>+C173-D173</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C174">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D174">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E174">
         <f>+C174-D174</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C175">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D175">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E175">
         <f>+C175-D175</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C176">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D176">
-        <v>46</v>
-      </c>
-      <c r="E176">
+        <v>17</v>
+      </c>
+      <c r="E176" s="1">
         <f>+C176-D176</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177">
+        <v>23</v>
+      </c>
+      <c r="D177">
         <v>22</v>
-      </c>
-      <c r="C177">
-        <v>3</v>
-      </c>
-      <c r="D177">
-        <v>2</v>
       </c>
       <c r="E177">
         <f>+C177-D177</f>
@@ -4201,182 +4201,182 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E178">
         <f>+C178-D178</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
       </c>
       <c r="C179">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <f>+C179-D179</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C180">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D180">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E180">
         <f>+C180-D180</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C181">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D181">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E181">
         <f>+C181-D181</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C182">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E182">
         <f>+C182-D182</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C183">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D183">
-        <v>6</v>
-      </c>
-      <c r="E183">
+        <v>34</v>
+      </c>
+      <c r="E183" s="1">
         <f>+C183-D183</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C184">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E184">
         <f>+C184-D184</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C185">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D185">
         <v>32</v>
       </c>
       <c r="E185">
         <f>+C185-D185</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C186">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D186">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E186">
         <f>+C186-D186</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C187">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D187">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E187">
         <f>+C187-D187</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4384,17 +4384,17 @@
         <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
+        <v>39</v>
+      </c>
+      <c r="E188" s="1">
         <f>+C188-D188</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4402,17 +4402,17 @@
         <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E189">
         <f>+C189-D189</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4420,17 +4420,17 @@
         <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C190">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D190">
-        <v>22</v>
-      </c>
-      <c r="E190">
+        <v>31</v>
+      </c>
+      <c r="E190" s="1">
         <f>+C190-D190</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4456,17 +4456,17 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C192">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D192">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E192">
         <f>+C192-D192</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,13 +4474,13 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C193">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D193">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E193">
         <f>+C193-D193</f>
@@ -4492,85 +4492,85 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D194">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E194">
         <f>+C194-D194</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C195">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D195">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E195">
         <f>+C195-D195</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C196">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D196">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E196">
         <f>+C196-D196</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C197">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D197">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E197">
         <f>+C197-D197</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C198">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D198">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E198">
         <f>+C198-D198</f>
@@ -4579,34 +4579,34 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C199">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D199">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E199">
         <f>+C199-D199</f>
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C200">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E200">
         <f>+C200-D200</f>
@@ -4615,290 +4615,290 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C201">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E201">
         <f>+C201-D201</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C202">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D202">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E202">
         <f>+C202-D202</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C203">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D203">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E203">
         <f>+C203-D203</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D204">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E204">
         <f>+C204-D204</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C205">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D205">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E205">
         <f>+C205-D205</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C206">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <f>+C206-D206</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C207">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <f>+C207-D207</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E208">
         <f>+C208-D208</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E209">
         <f>+C209-D209</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B210" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C210">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E210">
         <f>+C210-D210</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D211">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E211">
         <f>+C211-D211</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C212">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D212">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E212">
         <f>+C212-D212</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C213">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D213">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E213">
         <f>+C213-D213</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C214">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D214">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E214">
         <f>+C214-D214</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C215">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E215">
         <f>+C215-D215</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C216">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D216">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E216">
         <f>+C216-D216</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4906,17 +4906,17 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C217">
+        <v>12</v>
+      </c>
+      <c r="D217">
         <v>13</v>
-      </c>
-      <c r="D217">
-        <v>11</v>
       </c>
       <c r="E217">
         <f>+C217-D217</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4924,13 +4924,13 @@
         <v>5</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C218">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D218">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E218">
         <f>+C218-D218</f>
@@ -4942,17 +4942,17 @@
         <v>5</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C219">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E219">
         <f>+C219-D219</f>
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4960,139 +4960,139 @@
         <v>5</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C220">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D220">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <f>+C220-D220</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E221">
         <f>+C221-D221</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
         <v>42</v>
       </c>
       <c r="C222">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D222">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E222">
         <f>+C222-D222</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C223">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D223">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E223">
         <f>+C223-D223</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C224">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D224">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E224">
         <f>+C224-D224</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B225" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E225">
         <f>+C225-D225</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C226">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D226">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E226">
         <f>+C226-D226</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B227" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C227">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E227">
         <f>+C227-D227</f>
@@ -5101,16 +5101,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C228">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D228">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E228">
         <f>+C228-D228</f>
@@ -5122,17 +5122,17 @@
         <v>5</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C229">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E229">
         <f>+C229-D229</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5140,17 +5140,17 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C230">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D230">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E230">
         <f>+C230-D230</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5158,17 +5158,17 @@
         <v>5</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C231">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E231">
         <f>+C231-D231</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5176,17 +5176,17 @@
         <v>5</v>
       </c>
       <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232">
         <v>27</v>
       </c>
-      <c r="C232">
-        <v>22</v>
-      </c>
       <c r="D232">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E232">
         <f>+C232-D232</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5194,17 +5194,17 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C233">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D233">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E233">
         <f>+C233-D233</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5212,125 +5212,125 @@
         <v>5</v>
       </c>
       <c r="B234" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C234">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D234">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E234">
         <f>+C234-D234</f>
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C235">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D235">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E235">
         <f>+C235-D235</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C236">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D236">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E236">
         <f>+C236-D236</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B237" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C237">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D237">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E237">
         <f>+C237-D237</f>
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C238">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D238">
         <v>33</v>
       </c>
       <c r="E238">
         <f>+C238-D238</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B239" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C239">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239">
         <v>31</v>
       </c>
       <c r="E239">
         <f>+C239-D239</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B240" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C240">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D240">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E240">
         <f>+C240-D240</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -5338,293 +5338,293 @@
         <v>5</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C241">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D241">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E241">
         <f>+C241-D241</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C242">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D242">
-        <v>25</v>
-      </c>
-      <c r="E242" s="1">
+        <v>38</v>
+      </c>
+      <c r="E242">
         <f>+C242-D242</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C243">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D243">
-        <v>17</v>
-      </c>
-      <c r="E243" s="1">
+        <v>39</v>
+      </c>
+      <c r="E243">
         <f>+C243-D243</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C244">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D244">
-        <v>31</v>
-      </c>
-      <c r="E244" s="1">
+        <v>42</v>
+      </c>
+      <c r="E244">
         <f>+C244-D244</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C245">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D245">
-        <v>4</v>
-      </c>
-      <c r="E245" s="1">
+        <v>36</v>
+      </c>
+      <c r="E245">
         <f>+C245-D245</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B246" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C246">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D246">
-        <v>18</v>
-      </c>
-      <c r="E246" s="1">
+        <v>41</v>
+      </c>
+      <c r="E246">
         <f>+C246-D246</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C247">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D247">
-        <v>12</v>
-      </c>
-      <c r="E247" s="1">
+        <v>40</v>
+      </c>
+      <c r="E247">
         <f>+C247-D247</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C248">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D248">
-        <v>5</v>
-      </c>
-      <c r="E248" s="1">
+        <v>44</v>
+      </c>
+      <c r="E248">
         <f>+C248-D248</f>
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C249">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D249">
-        <v>10</v>
-      </c>
-      <c r="E249" s="1">
+        <v>43</v>
+      </c>
+      <c r="E249">
         <f>+C249-D249</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C250">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D250">
-        <v>29</v>
-      </c>
-      <c r="E250" s="1">
+        <v>45</v>
+      </c>
+      <c r="E250">
         <f>+C250-D250</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C251">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D251">
-        <v>10</v>
-      </c>
-      <c r="E251" s="1">
+        <v>46</v>
+      </c>
+      <c r="E251">
         <f>+C251-D251</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C252">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D252">
-        <v>11</v>
-      </c>
-      <c r="E252" s="1">
+        <v>49</v>
+      </c>
+      <c r="E252">
         <f>+C252-D252</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C253">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D253">
-        <v>27</v>
-      </c>
-      <c r="E253" s="1">
+        <v>47</v>
+      </c>
+      <c r="E253">
         <f>+C253-D253</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B254" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C254">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D254">
-        <v>4</v>
-      </c>
-      <c r="E254" s="1">
+        <v>48</v>
+      </c>
+      <c r="E254">
         <f>+C254-D254</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C255">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D255">
-        <v>15</v>
-      </c>
-      <c r="E255" s="1">
+        <v>51</v>
+      </c>
+      <c r="E255">
         <f>+C255-D255</f>
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C256">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D256">
-        <v>19</v>
-      </c>
-      <c r="E256" s="1">
+        <v>50</v>
+      </c>
+      <c r="E256">
         <f>+C256-D256</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
     <sortState ref="A2:E256">
-      <sortCondition ref="E1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
